--- a/play_database_cleaned_download.xlsx
+++ b/play_database_cleaned_download.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ger\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{905E3DE3-6097-415C-842A-D786E87DB1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74DE1E2-FF6E-462B-A185-E521D436BDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Updated_Play_Database" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
   <si>
     <t>Play Name</t>
   </si>
@@ -269,13 +269,55 @@
   </si>
   <si>
     <t>Simple, steady gain vs zone</t>
+  </si>
+  <si>
+    <t>Play ID</t>
+  </si>
+  <si>
+    <t>P001</t>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>P004</t>
+  </si>
+  <si>
+    <t>P005</t>
+  </si>
+  <si>
+    <t>P006</t>
+  </si>
+  <si>
+    <t>P007</t>
+  </si>
+  <si>
+    <t>P008</t>
+  </si>
+  <si>
+    <t>P009</t>
+  </si>
+  <si>
+    <t>P010</t>
+  </si>
+  <si>
+    <t>P011</t>
+  </si>
+  <si>
+    <t>P012</t>
+  </si>
+  <si>
+    <t>P013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +448,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1128,535 +1176,578 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.7</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>27</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
       </c>
       <c r="K3">
         <v>0.5</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+      <c r="M3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.6</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.9</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.8</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.9</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>44</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>46</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.75</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.95</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>48</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>51</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>52</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.79</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1.02</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>55</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>56</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>57</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>27</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.83</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1.0900000000000001</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>59</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>61</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>62</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>63</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>20</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.87</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>65</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>66</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>67</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>68</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>20</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.91</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1.23</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
         <v>69</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>70</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>71</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>72</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>27</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.95</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1.3</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
         <v>73</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>59</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>55</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>74</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>75</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>27</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.99</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1.37</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
         <v>76</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>77</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>77</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>78</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>27</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.03</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1.44</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
         <v>79</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>80</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>81</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>82</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>20</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1.07</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1.51</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/play_database_cleaned_download.xlsx
+++ b/play_database_cleaned_download.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ger\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74DE1E2-FF6E-462B-A185-E521D436BDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12253D8A-780A-4765-9B18-7A41574C6A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="171">
   <si>
     <t>Play Name</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Play Type</t>
   </si>
   <si>
-    <t>Target Depth</t>
-  </si>
-  <si>
     <t>Primary Read</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Short to Medium</t>
-  </si>
-  <si>
     <t>TE Drag</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>Run</t>
   </si>
   <si>
-    <t>Backfield</t>
-  </si>
-  <si>
     <t>Inside zone handoff</t>
   </si>
   <si>
@@ -112,9 +103,6 @@
     <t>PA Pin Deep</t>
   </si>
   <si>
-    <t>Deep</t>
-  </si>
-  <si>
     <t>Drag to Post</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>Slant Spacing</t>
   </si>
   <si>
-    <t>Short</t>
-  </si>
-  <si>
     <t>Slant/Flat side read</t>
   </si>
   <si>
@@ -166,9 +151,6 @@
     <t>Play Action Boot Slide</t>
   </si>
   <si>
-    <t>Short to Long</t>
-  </si>
-  <si>
     <t>Slide route</t>
   </si>
   <si>
@@ -217,9 +199,6 @@
     <t>PA Choice Deep</t>
   </si>
   <si>
-    <t>Medium to Long</t>
-  </si>
-  <si>
     <t>Short-side Switch Concept</t>
   </si>
   <si>
@@ -311,6 +290,249 @@
   </si>
   <si>
     <t>P013</t>
+  </si>
+  <si>
+    <t>P014</t>
+  </si>
+  <si>
+    <t>Lead Zone Wk Read</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>P015</t>
+  </si>
+  <si>
+    <t>RPO Alert Hitch</t>
+  </si>
+  <si>
+    <t>Hitch</t>
+  </si>
+  <si>
+    <t>Hitch &gt; Handoff</t>
+  </si>
+  <si>
+    <t>rpo</t>
+  </si>
+  <si>
+    <t>P016</t>
+  </si>
+  <si>
+    <t>HB Slip Screen</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>HB Screen</t>
+  </si>
+  <si>
+    <t>Screen &gt; Throwaway</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>P017</t>
+  </si>
+  <si>
+    <t>Speed Option</t>
+  </si>
+  <si>
+    <t>Pitch Key</t>
+  </si>
+  <si>
+    <t>Read Edge Defender</t>
+  </si>
+  <si>
+    <t>P018</t>
+  </si>
+  <si>
+    <t>Wide Slot Left Wk</t>
+  </si>
+  <si>
+    <t>P019</t>
+  </si>
+  <si>
+    <t>Outside Switch</t>
+  </si>
+  <si>
+    <t>TE&gt;Outside Streak&gt;Inside Switch</t>
+  </si>
+  <si>
+    <t>P020</t>
+  </si>
+  <si>
+    <t>Dart Read Option</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>P021</t>
+  </si>
+  <si>
+    <t>RPO Zone Read Bubble</t>
+  </si>
+  <si>
+    <t>RPO</t>
+  </si>
+  <si>
+    <t>Bubble</t>
+  </si>
+  <si>
+    <t>Check end, read bubble, to handoff</t>
+  </si>
+  <si>
+    <t>short, medium</t>
+  </si>
+  <si>
+    <t>P022</t>
+  </si>
+  <si>
+    <t>QB Slot Option</t>
+  </si>
+  <si>
+    <t>Edge Defender</t>
+  </si>
+  <si>
+    <t>Read End, Read pitch defender</t>
+  </si>
+  <si>
+    <t>P023</t>
+  </si>
+  <si>
+    <t>RPO Read Y Flat</t>
+  </si>
+  <si>
+    <t>Slot Corner</t>
+  </si>
+  <si>
+    <t>P024</t>
+  </si>
+  <si>
+    <t>PA Slide</t>
+  </si>
+  <si>
+    <t>Slot Corner Route</t>
+  </si>
+  <si>
+    <t>Quick Flat to TE&gt;Corner Route&gt;Backside Cross</t>
+  </si>
+  <si>
+    <t>P025</t>
+  </si>
+  <si>
+    <t>Shovel Option</t>
+  </si>
+  <si>
+    <t>P026</t>
+  </si>
+  <si>
+    <t>RPO Bubble Y Pop</t>
+  </si>
+  <si>
+    <t>Y Off Trips</t>
+  </si>
+  <si>
+    <t>TE Pop</t>
+  </si>
+  <si>
+    <t>Bubble&gt;TE&gt;Handoff</t>
+  </si>
+  <si>
+    <t>P027</t>
+  </si>
+  <si>
+    <t>PA Double Post</t>
+  </si>
+  <si>
+    <t>Wheel</t>
+  </si>
+  <si>
+    <t>Streak Slot WR</t>
+  </si>
+  <si>
+    <t>Cross &gt; Post &gt; TE Wheel</t>
+  </si>
+  <si>
+    <t>P028</t>
+  </si>
+  <si>
+    <t>All Go</t>
+  </si>
+  <si>
+    <t>TE Post</t>
+  </si>
+  <si>
+    <t>Texas RB;Motion RB Opposite side</t>
+  </si>
+  <si>
+    <t>Seam Streak&gt;Hi Lo RB TE</t>
+  </si>
+  <si>
+    <t>P030</t>
+  </si>
+  <si>
+    <t>Mesh Spot</t>
+  </si>
+  <si>
+    <t>Tight Open</t>
+  </si>
+  <si>
+    <t>Mesh Concept</t>
+  </si>
+  <si>
+    <t>Streak Spot Route</t>
+  </si>
+  <si>
+    <t>Rail&gt;Mesh&gt;Frontside In</t>
+  </si>
+  <si>
+    <t>P031</t>
+  </si>
+  <si>
+    <t>Verticals HB Burst</t>
+  </si>
+  <si>
+    <t>Outside Fade</t>
+  </si>
+  <si>
+    <t>Outside Fade&gt;Halfback Checkdown</t>
+  </si>
+  <si>
+    <t>P032</t>
+  </si>
+  <si>
+    <t>Read End</t>
+  </si>
+  <si>
+    <t>P033</t>
+  </si>
+  <si>
+    <t>MTN RPO Zone Bubble</t>
+  </si>
+  <si>
+    <t>Split Slot Offset</t>
+  </si>
+  <si>
+    <t>Slot corner</t>
+  </si>
+  <si>
+    <t>Read Slot Corner</t>
+  </si>
+  <si>
+    <t>P034</t>
+  </si>
+  <si>
+    <t>Shakes</t>
+  </si>
+  <si>
+    <t>Corner Route</t>
+  </si>
+  <si>
+    <t>Quick Flats&gt;Corner</t>
   </si>
 </sst>
 </file>
@@ -1177,28 +1399,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1210,540 +1434,1222 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+      <c r="F2">
+        <v>0.8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>0.8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>0.6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>0.75</v>
+      </c>
+      <c r="F6">
+        <v>0.8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+      <c r="F7">
+        <v>0.7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>84</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K9" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2">
-        <v>0.7</v>
-      </c>
-      <c r="L2">
+      <c r="L9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0.1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="F14">
+        <v>0.3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" t="s">
+        <v>120</v>
+      </c>
+      <c r="J22" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>0.1</v>
+      </c>
+      <c r="F25">
+        <v>0.9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" t="s">
+        <v>97</v>
+      </c>
+      <c r="K27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>0.3</v>
+      </c>
+      <c r="F28">
         <v>0.8</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" t="s">
+        <v>148</v>
+      </c>
+      <c r="I29" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" t="s">
+        <v>155</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" t="s">
+        <v>159</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" t="s">
+        <v>161</v>
+      </c>
+      <c r="J32" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3">
-        <v>0.5</v>
-      </c>
-      <c r="L3">
-        <v>0.5</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" t="s">
+        <v>166</v>
+      </c>
+      <c r="J33" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>0.6</v>
-      </c>
-      <c r="L4">
+      <c r="E34">
+        <v>0.1</v>
+      </c>
+      <c r="F34">
         <v>0.9</v>
       </c>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <v>0.8</v>
-      </c>
-      <c r="L5">
-        <v>0.9</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <v>0.75</v>
-      </c>
-      <c r="L6">
-        <v>0.95</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="G34" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" t="s">
+        <v>170</v>
+      </c>
+      <c r="J34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" t="s">
         <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>0.79</v>
-      </c>
-      <c r="L7">
-        <v>1.02</v>
-      </c>
-      <c r="M7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8">
-        <v>0.83</v>
-      </c>
-      <c r="L8">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="M8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9">
-        <v>0.87</v>
-      </c>
-      <c r="L9">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="M9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10">
-        <v>0.91</v>
-      </c>
-      <c r="L10">
-        <v>1.23</v>
-      </c>
-      <c r="M10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.95</v>
-      </c>
-      <c r="L11">
-        <v>1.3</v>
-      </c>
-      <c r="M11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12">
-        <v>0.99</v>
-      </c>
-      <c r="L12">
-        <v>1.37</v>
-      </c>
-      <c r="M12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13">
-        <v>1.03</v>
-      </c>
-      <c r="L13">
-        <v>1.44</v>
-      </c>
-      <c r="M13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14">
-        <v>1.07</v>
-      </c>
-      <c r="L14">
-        <v>1.51</v>
-      </c>
-      <c r="M14" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/play_database_cleaned_download.xlsx
+++ b/play_database_cleaned_download.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ger\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12253D8A-780A-4765-9B18-7A41574C6A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D828BF5-D752-4798-93C0-AE4A870D4326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Updated_Play_Database" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="303">
   <si>
     <t>Play Name</t>
   </si>
@@ -316,21 +316,9 @@
     <t>rpo</t>
   </si>
   <si>
-    <t>P016</t>
-  </si>
-  <si>
-    <t>HB Slip Screen</t>
-  </si>
-  <si>
     <t>Screen</t>
   </si>
   <si>
-    <t>HB Screen</t>
-  </si>
-  <si>
-    <t>Screen &gt; Throwaway</t>
-  </si>
-  <si>
     <t>screen</t>
   </si>
   <si>
@@ -475,9 +463,6 @@
     <t>P030</t>
   </si>
   <si>
-    <t>Mesh Spot</t>
-  </si>
-  <si>
     <t>Tight Open</t>
   </si>
   <si>
@@ -533,6 +518,417 @@
   </si>
   <si>
     <t>Quick Flats&gt;Corner</t>
+  </si>
+  <si>
+    <t>P035</t>
+  </si>
+  <si>
+    <t>Salem Pivot Speed Out</t>
+  </si>
+  <si>
+    <t>Stack Y Flex</t>
+  </si>
+  <si>
+    <t>Speed Out</t>
+  </si>
+  <si>
+    <t>Streak Top Stack &gt; Speed Out Bottom x2 stem</t>
+  </si>
+  <si>
+    <t>Speed Out&gt;Zig&gt;Deep In</t>
+  </si>
+  <si>
+    <t>P036</t>
+  </si>
+  <si>
+    <t>Salem Pivot C Route</t>
+  </si>
+  <si>
+    <t>C Route</t>
+  </si>
+  <si>
+    <t>Streak Top Stack &gt; Stem Up C Route x1</t>
+  </si>
+  <si>
+    <t>C Route&gt;Zig&gt;Deep In</t>
+  </si>
+  <si>
+    <t>Cover 3 match bomb</t>
+  </si>
+  <si>
+    <t>P037</t>
+  </si>
+  <si>
+    <t>Fade Out</t>
+  </si>
+  <si>
+    <t>Drag &gt; TE Post &gt; Comeback</t>
+  </si>
+  <si>
+    <t>Drag Top Stack; Comeback Bottom Stack; Block RB</t>
+  </si>
+  <si>
+    <t>Cover 3 Stock Bomb</t>
+  </si>
+  <si>
+    <t>P038</t>
+  </si>
+  <si>
+    <t>Y Sail</t>
+  </si>
+  <si>
+    <t>TE Corner</t>
+  </si>
+  <si>
+    <t>Stem Up TE x1</t>
+  </si>
+  <si>
+    <t>RB Flat &gt; TE Corner&gt; Zig &gt; In</t>
+  </si>
+  <si>
+    <t>P039</t>
+  </si>
+  <si>
+    <t>PA Read</t>
+  </si>
+  <si>
+    <t>Deep Cross</t>
+  </si>
+  <si>
+    <t>Motion In TE Drag&gt; Bottom Stack Speed Out + Stem All Down;Solo Streak</t>
+  </si>
+  <si>
+    <t>Speed out&gt;Drag&gt;Deep Cross</t>
+  </si>
+  <si>
+    <t>Short Side Slot Post, Wide Side Slot Slant</t>
+  </si>
+  <si>
+    <t>Mesh Spot Civil</t>
+  </si>
+  <si>
+    <t>P040</t>
+  </si>
+  <si>
+    <t>Mesh Spot AntCap</t>
+  </si>
+  <si>
+    <t>RB Wheel</t>
+  </si>
+  <si>
+    <t>Short Side Slot Streak, Short Side OWR Flat; Wide Side Slot Hitch</t>
+  </si>
+  <si>
+    <t>Flat &gt; Wheel&gt;Deep In</t>
+  </si>
+  <si>
+    <t>P041</t>
+  </si>
+  <si>
+    <t>Inside Zone</t>
+  </si>
+  <si>
+    <t>AB Gap</t>
+  </si>
+  <si>
+    <t>P042</t>
+  </si>
+  <si>
+    <t>Flood HB Swing</t>
+  </si>
+  <si>
+    <t>RB Streak</t>
+  </si>
+  <si>
+    <t>RB Streak;Slot Flat;Outside Trips Comeback</t>
+  </si>
+  <si>
+    <t>RB Streak&gt;TE Spot&gt;Comeback</t>
+  </si>
+  <si>
+    <t>P043</t>
+  </si>
+  <si>
+    <t>HB Direct</t>
+  </si>
+  <si>
+    <t>Spread Dbl Flex</t>
+  </si>
+  <si>
+    <t>P044</t>
+  </si>
+  <si>
+    <t>MTN Mesh</t>
+  </si>
+  <si>
+    <t>Outside WR Speed Out</t>
+  </si>
+  <si>
+    <t>Post&gt;RB Wheel&gt;Mesh</t>
+  </si>
+  <si>
+    <t>P045</t>
+  </si>
+  <si>
+    <t>MTN Slot Shallow</t>
+  </si>
+  <si>
+    <t>Shallow</t>
+  </si>
+  <si>
+    <t>HB Side Slot Drag;Outside WR Post</t>
+  </si>
+  <si>
+    <t>Post&gt;Shallow Cross&gt;Spot</t>
+  </si>
+  <si>
+    <t>P046</t>
+  </si>
+  <si>
+    <t>MTN WR Mid Screen</t>
+  </si>
+  <si>
+    <t>P047</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Wide Bunch</t>
+  </si>
+  <si>
+    <t>HB In Route</t>
+  </si>
+  <si>
+    <t>HB In&gt;Drag&gt;Driver</t>
+  </si>
+  <si>
+    <t>P048</t>
+  </si>
+  <si>
+    <t>Drag OWR; Solo Post</t>
+  </si>
+  <si>
+    <t>Post&gt;Drag&gt;Crosser</t>
+  </si>
+  <si>
+    <t>P049</t>
+  </si>
+  <si>
+    <t>P050</t>
+  </si>
+  <si>
+    <t>RPO Read Screen</t>
+  </si>
+  <si>
+    <t>Read Option &gt; Screen</t>
+  </si>
+  <si>
+    <t>P051</t>
+  </si>
+  <si>
+    <t>HB Cross Screen</t>
+  </si>
+  <si>
+    <t>P052</t>
+  </si>
+  <si>
+    <t>Wide Slot Right</t>
+  </si>
+  <si>
+    <t>P053</t>
+  </si>
+  <si>
+    <t>PA Wheel</t>
+  </si>
+  <si>
+    <t>Crosser</t>
+  </si>
+  <si>
+    <t>Stem Up Outside Post 3X</t>
+  </si>
+  <si>
+    <t>Quick Wheel&gt;Shallow Cross&gt;Post</t>
+  </si>
+  <si>
+    <t>P054</t>
+  </si>
+  <si>
+    <t>Verticals</t>
+  </si>
+  <si>
+    <t>Slot Streak</t>
+  </si>
+  <si>
+    <t>Slot Streak&gt;TE In&gt;HB Angle</t>
+  </si>
+  <si>
+    <t>In Route TE; Texas RB; Solo Post/Curl</t>
+  </si>
+  <si>
+    <t>P055</t>
+  </si>
+  <si>
+    <t>TE Flat</t>
+  </si>
+  <si>
+    <t>Read Ege&gt; Y Flat</t>
+  </si>
+  <si>
+    <t>P056</t>
+  </si>
+  <si>
+    <t>RPO Read WR Screen</t>
+  </si>
+  <si>
+    <t>Read Option</t>
+  </si>
+  <si>
+    <t>Read Edge &gt; Screen</t>
+  </si>
+  <si>
+    <t>P057</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Read Slot Post &gt; Handoff</t>
+  </si>
+  <si>
+    <t>P058</t>
+  </si>
+  <si>
+    <t>RPO Alert Post Iso</t>
+  </si>
+  <si>
+    <t>Read Edge</t>
+  </si>
+  <si>
+    <t>P059</t>
+  </si>
+  <si>
+    <t>Wide Slot Right Wk</t>
+  </si>
+  <si>
+    <t>P060</t>
+  </si>
+  <si>
+    <t>Slant Swing</t>
+  </si>
+  <si>
+    <t>Deep Corner</t>
+  </si>
+  <si>
+    <t>Streak OWR; HB Wildcard</t>
+  </si>
+  <si>
+    <t>Quick Flat&gt;Corner&gt;Backside Slant</t>
+  </si>
+  <si>
+    <t>P061</t>
+  </si>
+  <si>
+    <t>Vertical TE Cross</t>
+  </si>
+  <si>
+    <t>Flat HB</t>
+  </si>
+  <si>
+    <t>Slot Streak&gt;TE In&gt;HB Flat</t>
+  </si>
+  <si>
+    <t>P062</t>
+  </si>
+  <si>
+    <t>Deep Choice</t>
+  </si>
+  <si>
+    <t>Wide Stack</t>
+  </si>
+  <si>
+    <t>Short Cross</t>
+  </si>
+  <si>
+    <t>Texas Rb</t>
+  </si>
+  <si>
+    <t>Short Cross&gt;Texas&gt;Frontside Deep Spot</t>
+  </si>
+  <si>
+    <t>P063</t>
+  </si>
+  <si>
+    <t>RPO Read  WR Screen</t>
+  </si>
+  <si>
+    <t>P064</t>
+  </si>
+  <si>
+    <t>P065</t>
+  </si>
+  <si>
+    <t>PA Cross</t>
+  </si>
+  <si>
+    <t>Deep Curl</t>
+  </si>
+  <si>
+    <t>Stem Curl 30 Yards;Bottom Stack Streak;Mtn Top Stack and Drag</t>
+  </si>
+  <si>
+    <t>Stemmed Curl;Drag</t>
+  </si>
+  <si>
+    <t>P066</t>
+  </si>
+  <si>
+    <t>Trey Open</t>
+  </si>
+  <si>
+    <t>Stem Up Corner 2x</t>
+  </si>
+  <si>
+    <t>Spot&gt;TE Corner&gt;Deep In</t>
+  </si>
+  <si>
+    <t>P067</t>
+  </si>
+  <si>
+    <t>Y Cross</t>
+  </si>
+  <si>
+    <t>Deep Dig</t>
+  </si>
+  <si>
+    <t>TE Post; Slot Wheel; Block HB</t>
+  </si>
+  <si>
+    <t>Deep Dig Curl&gt;Wheel</t>
+  </si>
+  <si>
+    <t>P068</t>
+  </si>
+  <si>
+    <t>Outside Zone</t>
+  </si>
+  <si>
+    <t>WR Mid Screen</t>
+  </si>
+  <si>
+    <t>P069</t>
+  </si>
+  <si>
+    <t>P070</t>
+  </si>
+  <si>
+    <t>Y Corner</t>
+  </si>
+  <si>
+    <t>Stem Up TE x1;Zig Slot;Bang 8 OWR</t>
+  </si>
+  <si>
+    <t>Zig&gt;Corner</t>
   </si>
 </sst>
 </file>
@@ -1399,11 +1795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2024,16 +2420,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2042,19 +2438,19 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" t="s">
         <v>92</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -2062,10 +2458,10 @@
         <v>104</v>
       </c>
       <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
         <v>105</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -2077,74 +2473,74 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
         <v>92</v>
       </c>
       <c r="I18" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" t="s">
         <v>108</v>
       </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" t="s">
-        <v>92</v>
-      </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
         <v>110</v>
       </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>111</v>
@@ -2153,27 +2549,27 @@
         <v>92</v>
       </c>
       <c r="I20" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
         <v>113</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" t="s">
         <v>114</v>
-      </c>
-      <c r="C21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2188,27 +2584,27 @@
         <v>92</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2217,19 +2613,19 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H22" t="s">
         <v>92</v>
       </c>
       <c r="I22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J22" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -2240,10 +2636,10 @@
         <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2258,45 +2654,45 @@
         <v>92</v>
       </c>
       <c r="I23" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="K23" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
         <v>126</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="F24">
+        <v>0.9</v>
+      </c>
+      <c r="G24" t="s">
         <v>127</v>
       </c>
-      <c r="C24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" t="s">
         <v>128</v>
       </c>
-      <c r="H24" t="s">
-        <v>92</v>
-      </c>
-      <c r="I24" t="s">
-        <v>92</v>
-      </c>
       <c r="J24" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="K24" t="s">
         <v>47</v>
@@ -2310,45 +2706,45 @@
         <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="H25" t="s">
         <v>92</v>
       </c>
       <c r="I25" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
         <v>133</v>
       </c>
-      <c r="B26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" t="s">
-        <v>109</v>
-      </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2357,51 +2753,51 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="H26" t="s">
         <v>92</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="J26" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="K26" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G27" t="s">
         <v>138</v>
       </c>
       <c r="H27" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="I27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J27" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="K27" t="s">
         <v>47</v>
@@ -2409,48 +2805,48 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
       <c r="E28">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F28">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J28" t="s">
         <v>18</v>
       </c>
       <c r="K28" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -2462,30 +2858,30 @@
         <v>0.5</v>
       </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J29" t="s">
         <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -2500,10 +2896,10 @@
         <v>153</v>
       </c>
       <c r="H30" t="s">
+        <v>193</v>
+      </c>
+      <c r="I30" t="s">
         <v>154</v>
-      </c>
-      <c r="I30" t="s">
-        <v>155</v>
       </c>
       <c r="J30" t="s">
         <v>18</v>
@@ -2514,51 +2910,51 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
       </c>
       <c r="E31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="H31" t="s">
         <v>92</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2567,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="H32" t="s">
         <v>92</v>
@@ -2576,13 +2972,13 @@
         <v>161</v>
       </c>
       <c r="J32" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>162</v>
       </c>
@@ -2590,65 +2986,1296 @@
         <v>163</v>
       </c>
       <c r="C33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>0.1</v>
+      </c>
+      <c r="F33">
+        <v>0.9</v>
+      </c>
+      <c r="G33" t="s">
         <v>164</v>
       </c>
-      <c r="D33" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
+        <v>139</v>
+      </c>
+      <c r="I33" t="s">
         <v>165</v>
       </c>
-      <c r="H33" t="s">
-        <v>92</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>166</v>
       </c>
-      <c r="J33" t="s">
-        <v>97</v>
-      </c>
-      <c r="K33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>167</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>168</v>
-      </c>
-      <c r="C34" t="s">
-        <v>164</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
       </c>
       <c r="E34">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F34">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="G34" t="s">
         <v>169</v>
       </c>
       <c r="H34" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="I34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J34" t="s">
         <v>18</v>
       </c>
       <c r="K34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <v>0.3</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>174</v>
+      </c>
+      <c r="H35" t="s">
+        <v>175</v>
+      </c>
+      <c r="I35" t="s">
+        <v>176</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>0.4</v>
+      </c>
+      <c r="F36">
+        <v>0.6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" t="s">
+        <v>181</v>
+      </c>
+      <c r="I36" t="s">
+        <v>180</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>185</v>
+      </c>
+      <c r="H37" t="s">
+        <v>186</v>
+      </c>
+      <c r="I37" t="s">
+        <v>187</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+      <c r="F38">
+        <v>0.5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>190</v>
+      </c>
+      <c r="H38" t="s">
+        <v>191</v>
+      </c>
+      <c r="I38" t="s">
+        <v>192</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>0.5</v>
+      </c>
+      <c r="F39">
+        <v>0.5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>197</v>
+      </c>
+      <c r="H39" t="s">
+        <v>198</v>
+      </c>
+      <c r="I39" t="s">
+        <v>199</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40">
+        <v>0.5</v>
+      </c>
+      <c r="F40">
+        <v>0.5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>205</v>
+      </c>
+      <c r="H41" t="s">
+        <v>206</v>
+      </c>
+      <c r="I41" t="s">
+        <v>207</v>
+      </c>
+      <c r="J41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>0.5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>202</v>
+      </c>
+      <c r="H42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" t="s">
+        <v>92</v>
+      </c>
+      <c r="J42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>0.5</v>
+      </c>
+      <c r="F43">
+        <v>0.5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" t="s">
+        <v>213</v>
+      </c>
+      <c r="I43" t="s">
+        <v>214</v>
+      </c>
+      <c r="J43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+      <c r="F44">
+        <v>0.5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>217</v>
+      </c>
+      <c r="H44" t="s">
+        <v>218</v>
+      </c>
+      <c r="I44" t="s">
+        <v>219</v>
+      </c>
+      <c r="J44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45">
+        <v>0.5</v>
+      </c>
+      <c r="F45">
+        <v>0.5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" t="s">
+        <v>92</v>
+      </c>
+      <c r="I45" t="s">
+        <v>92</v>
+      </c>
+      <c r="J45" t="s">
+        <v>99</v>
+      </c>
+      <c r="K45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" t="s">
+        <v>223</v>
+      </c>
+      <c r="C46" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>0.5</v>
+      </c>
+      <c r="F46">
+        <v>0.5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" t="s">
+        <v>225</v>
+      </c>
+      <c r="I46" t="s">
+        <v>226</v>
+      </c>
+      <c r="J46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47">
+        <v>0.1</v>
+      </c>
+      <c r="F47">
+        <v>0.5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" t="s">
+        <v>228</v>
+      </c>
+      <c r="I47" t="s">
+        <v>229</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48">
+        <v>0.5</v>
+      </c>
+      <c r="F48">
+        <v>0.5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>202</v>
+      </c>
+      <c r="H48" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" t="s">
+        <v>92</v>
+      </c>
+      <c r="J48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D49" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49">
+        <v>0.5</v>
+      </c>
+      <c r="F49">
+        <v>0.5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>98</v>
+      </c>
+      <c r="H49" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" t="s">
+        <v>233</v>
+      </c>
+      <c r="J49" t="s">
+        <v>97</v>
+      </c>
+      <c r="K49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" t="s">
+        <v>224</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50">
+        <v>0.5</v>
+      </c>
+      <c r="F50">
+        <v>0.5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50" t="s">
+        <v>99</v>
+      </c>
+      <c r="K50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" t="s">
+        <v>237</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51">
+        <v>0.5</v>
+      </c>
+      <c r="F51">
+        <v>0.5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>202</v>
+      </c>
+      <c r="H51" t="s">
+        <v>92</v>
+      </c>
+      <c r="I51" t="s">
+        <v>92</v>
+      </c>
+      <c r="J51" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>238</v>
+      </c>
+      <c r="B52" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>0.2</v>
+      </c>
+      <c r="F52">
+        <v>0.5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>240</v>
+      </c>
+      <c r="H52" t="s">
+        <v>241</v>
+      </c>
+      <c r="I52" t="s">
+        <v>242</v>
+      </c>
+      <c r="J52" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>243</v>
+      </c>
+      <c r="B53" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53">
+        <v>0.1</v>
+      </c>
+      <c r="F53">
+        <v>0.5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>245</v>
+      </c>
+      <c r="H53" t="s">
+        <v>247</v>
+      </c>
+      <c r="I53" t="s">
+        <v>246</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54">
+        <v>0.5</v>
+      </c>
+      <c r="F54">
+        <v>0.5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>249</v>
+      </c>
+      <c r="H54" t="s">
+        <v>92</v>
+      </c>
+      <c r="I54" t="s">
+        <v>250</v>
+      </c>
+      <c r="J54" t="s">
+        <v>97</v>
+      </c>
+      <c r="K54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55">
+        <v>0.5</v>
+      </c>
+      <c r="F55">
+        <v>0.5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>253</v>
+      </c>
+      <c r="H55" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" t="s">
+        <v>254</v>
+      </c>
+      <c r="J55" t="s">
+        <v>97</v>
+      </c>
+      <c r="K55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56">
+        <v>0.5</v>
+      </c>
+      <c r="F56">
+        <v>0.5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>256</v>
+      </c>
+      <c r="H56" t="s">
+        <v>92</v>
+      </c>
+      <c r="I56" t="s">
+        <v>257</v>
+      </c>
+      <c r="J56" t="s">
+        <v>97</v>
+      </c>
+      <c r="K56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>258</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57">
+        <v>0.5</v>
+      </c>
+      <c r="F57">
+        <v>0.5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>260</v>
+      </c>
+      <c r="H57" t="s">
+        <v>92</v>
+      </c>
+      <c r="I57" t="s">
+        <v>92</v>
+      </c>
+      <c r="J57" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>261</v>
+      </c>
+      <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" t="s">
+        <v>262</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58">
+        <v>0.5</v>
+      </c>
+      <c r="F58">
+        <v>0.5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>260</v>
+      </c>
+      <c r="H58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I58" t="s">
+        <v>92</v>
+      </c>
+      <c r="J58" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" t="s">
+        <v>262</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59">
+        <v>0.5</v>
+      </c>
+      <c r="F59">
+        <v>0.5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>265</v>
+      </c>
+      <c r="H59" t="s">
+        <v>266</v>
+      </c>
+      <c r="I59" t="s">
+        <v>267</v>
+      </c>
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" t="s">
+        <v>262</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60">
+        <v>0.1</v>
+      </c>
+      <c r="F60">
+        <v>0.5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>245</v>
+      </c>
+      <c r="H60" t="s">
+        <v>270</v>
+      </c>
+      <c r="I60" t="s">
+        <v>271</v>
+      </c>
+      <c r="J60" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>272</v>
+      </c>
+      <c r="B61" t="s">
+        <v>273</v>
+      </c>
+      <c r="C61" t="s">
+        <v>274</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <v>0.1</v>
+      </c>
+      <c r="F61">
+        <v>0.5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>275</v>
+      </c>
+      <c r="H61" t="s">
+        <v>276</v>
+      </c>
+      <c r="I61" t="s">
+        <v>277</v>
+      </c>
+      <c r="J61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>278</v>
+      </c>
+      <c r="B62" t="s">
+        <v>279</v>
+      </c>
+      <c r="C62" t="s">
+        <v>274</v>
+      </c>
+      <c r="D62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62">
+        <v>0.5</v>
+      </c>
+      <c r="F62">
+        <v>0.5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>253</v>
+      </c>
+      <c r="H62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+      <c r="J62" t="s">
+        <v>97</v>
+      </c>
+      <c r="K62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>280</v>
+      </c>
+      <c r="B63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" t="s">
+        <v>274</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63">
+        <v>0.5</v>
+      </c>
+      <c r="F63">
+        <v>0.5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>202</v>
+      </c>
+      <c r="H63" t="s">
+        <v>92</v>
+      </c>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+      <c r="J63" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>281</v>
+      </c>
+      <c r="B64" t="s">
+        <v>282</v>
+      </c>
+      <c r="C64" t="s">
+        <v>274</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64">
+        <v>0.1</v>
+      </c>
+      <c r="F64">
+        <v>0.7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>283</v>
+      </c>
+      <c r="H64" t="s">
+        <v>284</v>
+      </c>
+      <c r="I64" t="s">
+        <v>285</v>
+      </c>
+      <c r="J64" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>286</v>
+      </c>
+      <c r="B65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" t="s">
+        <v>287</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65">
+        <v>0.2</v>
+      </c>
+      <c r="F65">
+        <v>0.7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>185</v>
+      </c>
+      <c r="H65" t="s">
+        <v>288</v>
+      </c>
+      <c r="I65" t="s">
+        <v>289</v>
+      </c>
+      <c r="J65" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>290</v>
+      </c>
+      <c r="B66" t="s">
+        <v>291</v>
+      </c>
+      <c r="C66" t="s">
+        <v>287</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>0.05</v>
+      </c>
+      <c r="F66">
+        <v>0.5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>292</v>
+      </c>
+      <c r="H66" t="s">
+        <v>293</v>
+      </c>
+      <c r="I66" t="s">
+        <v>294</v>
+      </c>
+      <c r="J66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>295</v>
+      </c>
+      <c r="B67" t="s">
+        <v>296</v>
+      </c>
+      <c r="C67" t="s">
+        <v>287</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67">
+        <v>0.5</v>
+      </c>
+      <c r="F67">
+        <v>0.5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>202</v>
+      </c>
+      <c r="H67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+      <c r="J67" t="s">
+        <v>24</v>
+      </c>
+      <c r="K67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>298</v>
+      </c>
+      <c r="B68" t="s">
+        <v>297</v>
+      </c>
+      <c r="C68" t="s">
+        <v>287</v>
+      </c>
+      <c r="D68" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68">
+        <v>0.5</v>
+      </c>
+      <c r="F68">
+        <v>0.5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>98</v>
+      </c>
+      <c r="H68" t="s">
+        <v>92</v>
+      </c>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+      <c r="J68" t="s">
+        <v>99</v>
+      </c>
+      <c r="K68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>299</v>
+      </c>
+      <c r="B69" t="s">
+        <v>300</v>
+      </c>
+      <c r="C69" t="s">
+        <v>287</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69">
+        <v>0.5</v>
+      </c>
+      <c r="F69">
+        <v>0.5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>185</v>
+      </c>
+      <c r="H69" t="s">
+        <v>301</v>
+      </c>
+      <c r="I69" t="s">
+        <v>302</v>
+      </c>
+      <c r="J69" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" t="s">
         <v>47</v>
       </c>
     </row>

--- a/play_database_cleaned_download.xlsx
+++ b/play_database_cleaned_download.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ger\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D828BF5-D752-4798-93C0-AE4A870D4326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F081DEA7-F4F5-4344-A985-4421570B0E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Updated_Play_Database" sheetId="1" r:id="rId1"/>
@@ -1798,8 +1798,8 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1868,10 +1868,10 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -1906,10 +1906,10 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
@@ -1944,10 +1944,10 @@
         <v>13</v>
       </c>
       <c r="E4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -1982,10 +1982,10 @@
         <v>13</v>
       </c>
       <c r="E5">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -2020,10 +2020,10 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="s">
         <v>38</v>
@@ -2058,10 +2058,10 @@
         <v>13</v>
       </c>
       <c r="E7">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F7">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G7" t="s">
         <v>43</v>
@@ -2096,10 +2096,10 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8" t="s">
         <v>49</v>
@@ -2172,7 +2172,7 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F10">
         <v>0.5</v>
@@ -2210,10 +2210,10 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11" t="s">
         <v>63</v>
@@ -2248,10 +2248,10 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -2286,10 +2286,10 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13" t="s">
         <v>70</v>
@@ -2324,10 +2324,10 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F14">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G14" t="s">
         <v>73</v>
@@ -2362,10 +2362,10 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -2397,10 +2397,10 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16" t="s">
         <v>95</v>
@@ -2432,10 +2432,10 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17" t="s">
         <v>102</v>
@@ -2467,10 +2467,10 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18" t="s">
         <v>63</v>
@@ -2537,10 +2537,10 @@
         <v>21</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20" t="s">
         <v>111</v>
@@ -2572,10 +2572,10 @@
         <v>114</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21" t="s">
         <v>115</v>
@@ -2607,10 +2607,10 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G22" t="s">
         <v>120</v>
@@ -2642,10 +2642,10 @@
         <v>114</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23" t="s">
         <v>124</v>
@@ -2677,10 +2677,10 @@
         <v>13</v>
       </c>
       <c r="E24">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F24">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="G24" t="s">
         <v>127</v>
@@ -2712,10 +2712,10 @@
         <v>21</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G25" t="s">
         <v>120</v>
@@ -2747,10 +2747,10 @@
         <v>97</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G26" t="s">
         <v>134</v>
@@ -2782,10 +2782,10 @@
         <v>13</v>
       </c>
       <c r="E27">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F27">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G27" t="s">
         <v>138</v>
@@ -2922,10 +2922,10 @@
         <v>13</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G31" t="s">
         <v>111</v>
@@ -2957,10 +2957,10 @@
         <v>114</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G32" t="s">
         <v>160</v>
@@ -2992,10 +2992,10 @@
         <v>13</v>
       </c>
       <c r="E33">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F33">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="G33" t="s">
         <v>164</v>
@@ -3062,7 +3062,7 @@
         <v>13</v>
       </c>
       <c r="E35">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F35">
         <v>0.5</v>
@@ -3100,10 +3100,10 @@
         <v>13</v>
       </c>
       <c r="E36">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F36">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G36" t="s">
         <v>143</v>
@@ -3488,7 +3488,7 @@
         <v>13</v>
       </c>
       <c r="E47">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F47">
         <v>0.5</v>
@@ -3663,7 +3663,7 @@
         <v>13</v>
       </c>
       <c r="E52">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F52">
         <v>0.5</v>
@@ -3698,7 +3698,7 @@
         <v>13</v>
       </c>
       <c r="E53">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F53">
         <v>0.5</v>
@@ -3943,7 +3943,7 @@
         <v>13</v>
       </c>
       <c r="E60">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F60">
         <v>0.5</v>
@@ -3978,7 +3978,7 @@
         <v>13</v>
       </c>
       <c r="E61">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F61">
         <v>0.5</v>
@@ -4083,10 +4083,10 @@
         <v>13</v>
       </c>
       <c r="E64">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F64">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G64" t="s">
         <v>283</v>
@@ -4118,10 +4118,10 @@
         <v>13</v>
       </c>
       <c r="E65">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F65">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G65" t="s">
         <v>185</v>
@@ -4153,7 +4153,7 @@
         <v>13</v>
       </c>
       <c r="E66">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="F66">
         <v>0.5</v>
